--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7161673333333334</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H2">
-        <v>2.148502</v>
+        <v>2.38191</v>
       </c>
       <c r="I2">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J2">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.730463333333333</v>
+        <v>13.86995666666667</v>
       </c>
       <c r="N2">
-        <v>11.19139</v>
+        <v>41.60987</v>
       </c>
       <c r="O2">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759087</v>
       </c>
       <c r="P2">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759088</v>
       </c>
       <c r="Q2">
-        <v>2.671635977531111</v>
+        <v>11.01232949463334</v>
       </c>
       <c r="R2">
-        <v>24.04472379778</v>
+        <v>99.11096545170003</v>
       </c>
       <c r="S2">
-        <v>0.0001257648937839341</v>
+        <v>0.0006551190839532429</v>
       </c>
       <c r="T2">
-        <v>0.0001257648937839341</v>
+        <v>0.000655119083953243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7161673333333334</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H3">
-        <v>2.148502</v>
+        <v>2.38191</v>
       </c>
       <c r="I3">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J3">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>29.078656</v>
       </c>
       <c r="O3">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="P3">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="Q3">
-        <v>6.941727841479112</v>
+        <v>7.69586016810667</v>
       </c>
       <c r="R3">
-        <v>62.47555057331201</v>
+        <v>69.26274151296002</v>
       </c>
       <c r="S3">
-        <v>0.000326775680520432</v>
+        <v>0.0004578236481227044</v>
       </c>
       <c r="T3">
-        <v>0.000326775680520432</v>
+        <v>0.0004578236481227045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7161673333333334</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H4">
-        <v>2.148502</v>
+        <v>2.38191</v>
       </c>
       <c r="I4">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J4">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.150626</v>
+        <v>18.31932033333333</v>
       </c>
       <c r="N4">
-        <v>48.451878</v>
+        <v>54.957961</v>
       </c>
       <c r="O4">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395827</v>
       </c>
       <c r="P4">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395829</v>
       </c>
       <c r="Q4">
-        <v>11.566550754084</v>
+        <v>14.54499076505667</v>
       </c>
       <c r="R4">
-        <v>104.098956786756</v>
+        <v>130.90491688551</v>
       </c>
       <c r="S4">
-        <v>0.0005444851167104471</v>
+        <v>0.0008652756921917337</v>
       </c>
       <c r="T4">
-        <v>0.0005444851167104472</v>
+        <v>0.0008652756921917338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7161673333333334</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H5">
-        <v>2.148502</v>
+        <v>2.38191</v>
       </c>
       <c r="I5">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J5">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.18664466666667</v>
+        <v>29.981109</v>
       </c>
       <c r="N5">
-        <v>48.55993400000001</v>
+        <v>89.94332700000001</v>
       </c>
       <c r="O5">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="P5">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="Q5">
-        <v>11.59234614654089</v>
+        <v>23.80410111273001</v>
       </c>
       <c r="R5">
-        <v>104.331115318868</v>
+        <v>214.2369100145701</v>
       </c>
       <c r="S5">
-        <v>0.0005456994119287103</v>
+        <v>0.001416096469225859</v>
       </c>
       <c r="T5">
-        <v>0.0005456994119287103</v>
+        <v>0.001416096469225859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7161673333333334</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H6">
-        <v>2.148502</v>
+        <v>2.38191</v>
       </c>
       <c r="I6">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J6">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.87601466666666</v>
+        <v>83.54961400000001</v>
       </c>
       <c r="N6">
-        <v>179.628044</v>
+        <v>250.648842</v>
       </c>
       <c r="O6">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062193</v>
       </c>
       <c r="P6">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062194</v>
       </c>
       <c r="Q6">
-        <v>42.88124575445422</v>
+        <v>66.33588702758001</v>
       </c>
       <c r="R6">
-        <v>385.931211790088</v>
+        <v>597.0229832482202</v>
       </c>
       <c r="S6">
-        <v>0.002018596606344326</v>
+        <v>0.003946295428584159</v>
       </c>
       <c r="T6">
-        <v>0.002018596606344326</v>
+        <v>0.003946295428584159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7161673333333334</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H7">
-        <v>2.148502</v>
+        <v>2.38191</v>
       </c>
       <c r="I7">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J7">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.584346</v>
+        <v>34.93954466666667</v>
       </c>
       <c r="N7">
-        <v>40.753038</v>
+        <v>104.818634</v>
       </c>
       <c r="O7">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="P7">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="Q7">
-        <v>9.728664849897335</v>
+        <v>27.74095027899334</v>
       </c>
       <c r="R7">
-        <v>87.55798364907601</v>
+        <v>249.6685525109401</v>
       </c>
       <c r="S7">
-        <v>0.000457968268056303</v>
+        <v>0.001650298053978786</v>
       </c>
       <c r="T7">
-        <v>0.000457968268056303</v>
+        <v>0.001650298053978786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.745529</v>
       </c>
       <c r="I8">
-        <v>0.02384357890551148</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J8">
-        <v>0.02384357890551149</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.730463333333333</v>
+        <v>13.86995666666667</v>
       </c>
       <c r="N8">
-        <v>11.19139</v>
+        <v>41.60987</v>
       </c>
       <c r="O8">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759087</v>
       </c>
       <c r="P8">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759088</v>
       </c>
       <c r="Q8">
-        <v>15.84890953281222</v>
+        <v>58.92664497458111</v>
       </c>
       <c r="R8">
-        <v>142.64018579531</v>
+        <v>530.33980477123</v>
       </c>
       <c r="S8">
-        <v>0.0007460733575789321</v>
+        <v>0.003505522577670647</v>
       </c>
       <c r="T8">
-        <v>0.0007460733575789322</v>
+        <v>0.003505522577670647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.745529</v>
       </c>
       <c r="I9">
-        <v>0.02384357890551148</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J9">
-        <v>0.02384357890551149</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>29.078656</v>
       </c>
       <c r="O9">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="P9">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="Q9">
         <v>41.18031703655822</v>
@@ -1013,10 +1013,10 @@
         <v>370.622853329024</v>
       </c>
       <c r="S9">
-        <v>0.001938526895747781</v>
+        <v>0.002449800615486615</v>
       </c>
       <c r="T9">
-        <v>0.001938526895747782</v>
+        <v>0.002449800615486615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.745529</v>
       </c>
       <c r="I10">
-        <v>0.02384357890551148</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J10">
-        <v>0.02384357890551149</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.150626</v>
+        <v>18.31932033333333</v>
       </c>
       <c r="N10">
-        <v>48.451878</v>
+        <v>54.957961</v>
       </c>
       <c r="O10">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395827</v>
       </c>
       <c r="P10">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395829</v>
       </c>
       <c r="Q10">
-        <v>68.61609068371799</v>
+        <v>77.82980952292988</v>
       </c>
       <c r="R10">
-        <v>617.544816153462</v>
+        <v>700.468285706369</v>
       </c>
       <c r="S10">
-        <v>0.003230041603452725</v>
+        <v>0.004630064287829856</v>
       </c>
       <c r="T10">
-        <v>0.003230041603452726</v>
+        <v>0.004630064287829857</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.745529</v>
       </c>
       <c r="I11">
-        <v>0.02384357890551148</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J11">
-        <v>0.02384357890551149</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.18664466666667</v>
+        <v>29.981109</v>
       </c>
       <c r="N11">
-        <v>48.55993400000001</v>
+        <v>89.94332700000001</v>
       </c>
       <c r="O11">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="P11">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="Q11">
-        <v>68.76911633723178</v>
+        <v>127.375031403887</v>
       </c>
       <c r="R11">
-        <v>618.9220470350861</v>
+        <v>1146.375282634983</v>
       </c>
       <c r="S11">
-        <v>0.003237245150351417</v>
+        <v>0.007577489752054354</v>
       </c>
       <c r="T11">
-        <v>0.003237245150351418</v>
+        <v>0.007577489752054357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.745529</v>
       </c>
       <c r="I12">
-        <v>0.02384357890551148</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J12">
-        <v>0.02384357890551149</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.87601466666666</v>
+        <v>83.54961400000001</v>
       </c>
       <c r="N12">
-        <v>179.628044</v>
+        <v>250.648842</v>
       </c>
       <c r="O12">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062193</v>
       </c>
       <c r="P12">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062194</v>
       </c>
       <c r="Q12">
-        <v>254.3838271128084</v>
+        <v>354.9613427252687</v>
       </c>
       <c r="R12">
-        <v>2289.454444015276</v>
+        <v>3194.652084527418</v>
       </c>
       <c r="S12">
-        <v>0.01197489301171849</v>
+        <v>0.02111650852785656</v>
       </c>
       <c r="T12">
-        <v>0.01197489301171849</v>
+        <v>0.02111650852785656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.745529</v>
       </c>
       <c r="I13">
-        <v>0.02384357890551148</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J13">
-        <v>0.02384357890551149</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.584346</v>
+        <v>34.93954466666667</v>
       </c>
       <c r="N13">
-        <v>40.753038</v>
+        <v>104.818634</v>
       </c>
       <c r="O13">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="P13">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="Q13">
-        <v>57.71322529634467</v>
+        <v>148.4409932652651</v>
       </c>
       <c r="R13">
-        <v>519.419027667102</v>
+        <v>1335.968939387386</v>
       </c>
       <c r="S13">
-        <v>0.00271679888666214</v>
+        <v>0.008830695410670501</v>
       </c>
       <c r="T13">
-        <v>0.002716798886662141</v>
+        <v>0.008830695410670502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.817505</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H14">
-        <v>146.452515</v>
+        <v>71.029996</v>
       </c>
       <c r="I14">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J14">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.730463333333333</v>
+        <v>13.86995666666667</v>
       </c>
       <c r="N14">
-        <v>11.19139</v>
+        <v>41.60987</v>
       </c>
       <c r="O14">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759087</v>
       </c>
       <c r="P14">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759088</v>
       </c>
       <c r="Q14">
-        <v>182.1119124273167</v>
+        <v>328.3943221845022</v>
       </c>
       <c r="R14">
-        <v>1639.00721184585</v>
+        <v>2955.54889966052</v>
       </c>
       <c r="S14">
-        <v>0.008572756736258569</v>
+        <v>0.01953604708520578</v>
       </c>
       <c r="T14">
-        <v>0.008572756736258569</v>
+        <v>0.01953604708520578</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.817505</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H15">
-        <v>146.452515</v>
+        <v>71.029996</v>
       </c>
       <c r="I15">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J15">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>29.078656</v>
       </c>
       <c r="O15">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="P15">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="Q15">
-        <v>473.1824782244267</v>
+        <v>229.4952021517085</v>
       </c>
       <c r="R15">
-        <v>4258.642304019841</v>
+        <v>2065.456819365376</v>
       </c>
       <c r="S15">
-        <v>0.02227464542879353</v>
+        <v>0.01365257792899862</v>
       </c>
       <c r="T15">
-        <v>0.02227464542879353</v>
+        <v>0.01365257792899862</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.817505</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H16">
-        <v>146.452515</v>
+        <v>71.029996</v>
       </c>
       <c r="I16">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J16">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.150626</v>
+        <v>18.31932033333333</v>
       </c>
       <c r="N16">
-        <v>48.451878</v>
+        <v>54.957961</v>
       </c>
       <c r="O16">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395827</v>
       </c>
       <c r="P16">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395829</v>
       </c>
       <c r="Q16">
-        <v>788.43326550813</v>
+        <v>433.7404166664618</v>
       </c>
       <c r="R16">
-        <v>7095.89938957317</v>
+        <v>3903.663749998156</v>
       </c>
       <c r="S16">
-        <v>0.03711479659889239</v>
+        <v>0.02580304417684802</v>
       </c>
       <c r="T16">
-        <v>0.0371147965988924</v>
+        <v>0.02580304417684802</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.817505</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H17">
-        <v>146.452515</v>
+        <v>71.029996</v>
       </c>
       <c r="I17">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J17">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.18664466666667</v>
+        <v>29.981109</v>
       </c>
       <c r="N17">
-        <v>48.55993400000001</v>
+        <v>89.94332700000001</v>
       </c>
       <c r="O17">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="P17">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="Q17">
-        <v>790.1916069482236</v>
+        <v>709.852684115188</v>
       </c>
       <c r="R17">
-        <v>7111.724462534011</v>
+        <v>6388.674157036692</v>
       </c>
       <c r="S17">
-        <v>0.03719756896245878</v>
+        <v>0.04222885270422764</v>
       </c>
       <c r="T17">
-        <v>0.03719756896245878</v>
+        <v>0.04222885270422765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>48.817505</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H18">
-        <v>146.452515</v>
+        <v>71.029996</v>
       </c>
       <c r="I18">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J18">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>59.87601466666666</v>
+        <v>83.54961400000001</v>
       </c>
       <c r="N18">
-        <v>179.628044</v>
+        <v>250.648842</v>
       </c>
       <c r="O18">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062193</v>
       </c>
       <c r="P18">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062194</v>
       </c>
       <c r="Q18">
-        <v>2922.997645370073</v>
+        <v>1978.176249407181</v>
       </c>
       <c r="R18">
-        <v>26306.97880833066</v>
+        <v>17803.58624466463</v>
       </c>
       <c r="S18">
-        <v>0.1375975213286241</v>
+        <v>0.1176809151089466</v>
       </c>
       <c r="T18">
-        <v>0.1375975213286241</v>
+        <v>0.1176809151089466</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>48.817505</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H19">
-        <v>146.452515</v>
+        <v>71.029996</v>
       </c>
       <c r="I19">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J19">
-        <v>0.2739746696518524</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.584346</v>
+        <v>34.93954466666667</v>
       </c>
       <c r="N19">
-        <v>40.753038</v>
+        <v>104.818634</v>
       </c>
       <c r="O19">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="P19">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="Q19">
-        <v>663.1538787767302</v>
+        <v>827.2519059717183</v>
       </c>
       <c r="R19">
-        <v>5968.384908990571</v>
+        <v>7445.267153745463</v>
       </c>
       <c r="S19">
-        <v>0.03121738059682501</v>
+        <v>0.04921288553006659</v>
       </c>
       <c r="T19">
-        <v>0.03121738059682501</v>
+        <v>0.0492128855300666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9730783333333334</v>
+        <v>0.2020363333333333</v>
       </c>
       <c r="H20">
-        <v>2.919235</v>
+        <v>0.606109</v>
       </c>
       <c r="I20">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="J20">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.730463333333333</v>
+        <v>13.86995666666667</v>
       </c>
       <c r="N20">
-        <v>11.19139</v>
+        <v>41.60987</v>
       </c>
       <c r="O20">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759087</v>
       </c>
       <c r="P20">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759088</v>
       </c>
       <c r="Q20">
-        <v>3.630033042961111</v>
+        <v>2.802235188425556</v>
       </c>
       <c r="R20">
-        <v>32.67029738665</v>
+        <v>25.22011669583</v>
       </c>
       <c r="S20">
-        <v>0.0001708805854988</v>
+        <v>0.0001667038523100436</v>
       </c>
       <c r="T20">
-        <v>0.0001708805854988</v>
+        <v>0.0001667038523100436</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9730783333333334</v>
+        <v>0.2020363333333333</v>
       </c>
       <c r="H21">
-        <v>2.919235</v>
+        <v>0.606109</v>
       </c>
       <c r="I21">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="J21">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>29.078656</v>
       </c>
       <c r="O21">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="P21">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="Q21">
-        <v>9.431936705351113</v>
+        <v>1.958315012167112</v>
       </c>
       <c r="R21">
-        <v>84.88743034816001</v>
+        <v>17.624835109504</v>
       </c>
       <c r="S21">
-        <v>0.0004440000538626742</v>
+        <v>0.0001164993780369553</v>
       </c>
       <c r="T21">
-        <v>0.0004440000538626742</v>
+        <v>0.0001164993780369553</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9730783333333334</v>
+        <v>0.2020363333333333</v>
       </c>
       <c r="H22">
-        <v>2.919235</v>
+        <v>0.606109</v>
       </c>
       <c r="I22">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="J22">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.150626</v>
+        <v>18.31932033333333</v>
       </c>
       <c r="N22">
-        <v>48.451878</v>
+        <v>54.957961</v>
       </c>
       <c r="O22">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395827</v>
       </c>
       <c r="P22">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395829</v>
       </c>
       <c r="Q22">
-        <v>15.71582423037</v>
+        <v>3.701168309305445</v>
       </c>
       <c r="R22">
-        <v>141.44241807333</v>
+        <v>33.310514783749</v>
       </c>
       <c r="S22">
-        <v>0.0007398084850189676</v>
+        <v>0.0002201810246896984</v>
       </c>
       <c r="T22">
-        <v>0.0007398084850189678</v>
+        <v>0.0002201810246896984</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9730783333333334</v>
+        <v>0.2020363333333333</v>
       </c>
       <c r="H23">
-        <v>2.919235</v>
+        <v>0.606109</v>
       </c>
       <c r="I23">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="J23">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.18664466666667</v>
+        <v>29.981109</v>
       </c>
       <c r="N23">
-        <v>48.55993400000001</v>
+        <v>89.94332700000001</v>
       </c>
       <c r="O23">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="P23">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="Q23">
-        <v>15.75087321449889</v>
+        <v>6.057273331627001</v>
       </c>
       <c r="R23">
-        <v>141.75785893049</v>
+        <v>54.51545998464301</v>
       </c>
       <c r="S23">
-        <v>0.0007414583848568484</v>
+        <v>0.0003603447715765986</v>
       </c>
       <c r="T23">
-        <v>0.0007414583848568484</v>
+        <v>0.0003603447715765986</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9730783333333334</v>
+        <v>0.2020363333333333</v>
       </c>
       <c r="H24">
-        <v>2.919235</v>
+        <v>0.606109</v>
       </c>
       <c r="I24">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="J24">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.87601466666666</v>
+        <v>83.54961400000001</v>
       </c>
       <c r="N24">
-        <v>179.628044</v>
+        <v>250.648842</v>
       </c>
       <c r="O24">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062193</v>
       </c>
       <c r="P24">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062194</v>
       </c>
       <c r="Q24">
-        <v>58.26405255848222</v>
+        <v>16.88005766397534</v>
       </c>
       <c r="R24">
-        <v>524.37647302634</v>
+        <v>151.920518975778</v>
       </c>
       <c r="S24">
-        <v>0.002742728591419314</v>
+        <v>0.001004187889518796</v>
       </c>
       <c r="T24">
-        <v>0.002742728591419314</v>
+        <v>0.001004187889518796</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9730783333333334</v>
+        <v>0.2020363333333333</v>
       </c>
       <c r="H25">
-        <v>2.919235</v>
+        <v>0.606109</v>
       </c>
       <c r="I25">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="J25">
-        <v>0.00546113151256655</v>
+        <v>0.002287857427402051</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.584346</v>
+        <v>34.93954466666667</v>
       </c>
       <c r="N25">
-        <v>40.753038</v>
+        <v>104.818634</v>
       </c>
       <c r="O25">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="P25">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="Q25">
-        <v>13.21863276510333</v>
+        <v>7.059057492789557</v>
       </c>
       <c r="R25">
-        <v>118.96769488593</v>
+        <v>63.531517435106</v>
       </c>
       <c r="S25">
-        <v>0.0006222554119099454</v>
+        <v>0.0004199405112699589</v>
       </c>
       <c r="T25">
-        <v>0.0006222554119099454</v>
+        <v>0.0004199405112699589</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.90180899999999</v>
+        <v>41.77897400000001</v>
       </c>
       <c r="H26">
-        <v>101.705427</v>
+        <v>125.336922</v>
       </c>
       <c r="I26">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="J26">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.730463333333333</v>
+        <v>13.86995666666667</v>
       </c>
       <c r="N26">
-        <v>11.19139</v>
+        <v>41.60987</v>
       </c>
       <c r="O26">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759087</v>
       </c>
       <c r="P26">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759088</v>
       </c>
       <c r="Q26">
-        <v>126.4694554081699</v>
+        <v>579.4725589577935</v>
       </c>
       <c r="R26">
-        <v>1138.22509867353</v>
+        <v>5215.253030620141</v>
       </c>
       <c r="S26">
-        <v>0.005953437429383195</v>
+        <v>0.0344725911248364</v>
       </c>
       <c r="T26">
-        <v>0.005953437429383196</v>
+        <v>0.0344725911248364</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>33.90180899999999</v>
+        <v>41.77897400000001</v>
       </c>
       <c r="H27">
-        <v>101.705427</v>
+        <v>125.336922</v>
       </c>
       <c r="I27">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="J27">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>29.078656</v>
       </c>
       <c r="O27">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="P27">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="Q27">
-        <v>328.606347229568</v>
+        <v>404.9588043263147</v>
       </c>
       <c r="R27">
-        <v>2957.457125066112</v>
+        <v>3644.629238936833</v>
       </c>
       <c r="S27">
-        <v>0.01546885230758273</v>
+        <v>0.02409083755243097</v>
       </c>
       <c r="T27">
-        <v>0.01546885230758273</v>
+        <v>0.02409083755243097</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>33.90180899999999</v>
+        <v>41.77897400000001</v>
       </c>
       <c r="H28">
-        <v>101.705427</v>
+        <v>125.336922</v>
       </c>
       <c r="I28">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="J28">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.150626</v>
+        <v>18.31932033333333</v>
       </c>
       <c r="N28">
-        <v>48.451878</v>
+        <v>54.957961</v>
       </c>
       <c r="O28">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395827</v>
       </c>
       <c r="P28">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395829</v>
       </c>
       <c r="Q28">
-        <v>547.5354378824338</v>
+        <v>765.3624079040047</v>
       </c>
       <c r="R28">
-        <v>4927.818940941906</v>
+        <v>6888.261671136042</v>
       </c>
       <c r="S28">
-        <v>0.0257747450503564</v>
+        <v>0.04553110400507632</v>
       </c>
       <c r="T28">
-        <v>0.02577474505035642</v>
+        <v>0.04553110400507632</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>33.90180899999999</v>
+        <v>41.77897400000001</v>
       </c>
       <c r="H29">
-        <v>101.705427</v>
+        <v>125.336922</v>
       </c>
       <c r="I29">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="J29">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.18664466666667</v>
+        <v>29.981109</v>
       </c>
       <c r="N29">
-        <v>48.55993400000001</v>
+        <v>89.94332700000001</v>
       </c>
       <c r="O29">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="P29">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="Q29">
-        <v>548.756535840202</v>
+        <v>1252.579973402166</v>
       </c>
       <c r="R29">
-        <v>4938.808822561818</v>
+        <v>11273.2197606195</v>
       </c>
       <c r="S29">
-        <v>0.02583222715355087</v>
+        <v>0.07451548241026608</v>
       </c>
       <c r="T29">
-        <v>0.02583222715355087</v>
+        <v>0.07451548241026609</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>33.90180899999999</v>
+        <v>41.77897400000001</v>
       </c>
       <c r="H30">
-        <v>101.705427</v>
+        <v>125.336922</v>
       </c>
       <c r="I30">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="J30">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>59.87601466666666</v>
+        <v>83.54961400000001</v>
       </c>
       <c r="N30">
-        <v>179.628044</v>
+        <v>250.648842</v>
       </c>
       <c r="O30">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062193</v>
       </c>
       <c r="P30">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062194</v>
       </c>
       <c r="Q30">
-        <v>2029.905212910531</v>
+        <v>3490.617151016037</v>
       </c>
       <c r="R30">
-        <v>18269.14691619478</v>
+        <v>31415.55435914433</v>
       </c>
       <c r="S30">
-        <v>0.0955559872827675</v>
+        <v>0.2076554203649211</v>
       </c>
       <c r="T30">
-        <v>0.09555598728276751</v>
+        <v>0.2076554203649211</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>33.90180899999999</v>
+        <v>41.77897400000001</v>
       </c>
       <c r="H31">
-        <v>101.705427</v>
+        <v>125.336922</v>
       </c>
       <c r="I31">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="J31">
-        <v>0.1902644742162713</v>
+        <v>0.4731046856677785</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.584346</v>
+        <v>34.93954466666667</v>
       </c>
       <c r="N31">
-        <v>40.753038</v>
+        <v>104.818634</v>
       </c>
       <c r="O31">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="P31">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="Q31">
-        <v>460.533903481914</v>
+        <v>1459.738328200506</v>
       </c>
       <c r="R31">
-        <v>4144.805131337226</v>
+        <v>13137.64495380455</v>
       </c>
       <c r="S31">
-        <v>0.02167922499263056</v>
+        <v>0.08683925021024759</v>
       </c>
       <c r="T31">
-        <v>0.02167922499263056</v>
+        <v>0.0868392502102476</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>89.52547966666667</v>
+        <v>17.60794066666666</v>
       </c>
       <c r="H32">
-        <v>268.576439</v>
+        <v>52.82382199999999</v>
       </c>
       <c r="I32">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="J32">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.730463333333333</v>
+        <v>13.86995666666667</v>
       </c>
       <c r="N32">
-        <v>11.19139</v>
+        <v>41.60987</v>
       </c>
       <c r="O32">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759087</v>
       </c>
       <c r="P32">
-        <v>0.03129032602595058</v>
+        <v>0.07286461573759088</v>
       </c>
       <c r="Q32">
-        <v>333.9715192955788</v>
+        <v>244.2213740359044</v>
       </c>
       <c r="R32">
-        <v>3005.743673660209</v>
+        <v>2197.99236632314</v>
       </c>
       <c r="S32">
-        <v>0.01572141302344715</v>
+        <v>0.01452863201361477</v>
       </c>
       <c r="T32">
-        <v>0.01572141302344715</v>
+        <v>0.01452863201361477</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>89.52547966666667</v>
+        <v>17.60794066666666</v>
       </c>
       <c r="H33">
-        <v>268.576439</v>
+        <v>52.82382199999999</v>
       </c>
       <c r="I33">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="J33">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>29.078656</v>
       </c>
       <c r="O33">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="P33">
-        <v>0.08130184245535756</v>
+        <v>0.05092073336459815</v>
       </c>
       <c r="Q33">
-        <v>867.7602088206651</v>
+        <v>170.6717498381369</v>
       </c>
       <c r="R33">
-        <v>7809.841879385985</v>
+        <v>1536.045748543232</v>
       </c>
       <c r="S33">
-        <v>0.04084904208885041</v>
+        <v>0.01015319424152229</v>
       </c>
       <c r="T33">
-        <v>0.04084904208885041</v>
+        <v>0.01015319424152229</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>89.52547966666667</v>
+        <v>17.60794066666666</v>
       </c>
       <c r="H34">
-        <v>268.576439</v>
+        <v>52.82382199999999</v>
       </c>
       <c r="I34">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="J34">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.150626</v>
+        <v>18.31932033333333</v>
       </c>
       <c r="N34">
-        <v>48.451878</v>
+        <v>54.957961</v>
       </c>
       <c r="O34">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395827</v>
       </c>
       <c r="P34">
-        <v>0.1354679855844164</v>
+        <v>0.09623896229395829</v>
       </c>
       <c r="Q34">
-        <v>1445.892539566938</v>
+        <v>322.5655054829935</v>
       </c>
       <c r="R34">
-        <v>13013.03285610244</v>
+        <v>2903.089549346942</v>
       </c>
       <c r="S34">
-        <v>0.06806410872998547</v>
+        <v>0.01918929310732266</v>
       </c>
       <c r="T34">
-        <v>0.06806410872998549</v>
+        <v>0.01918929310732266</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>89.52547966666667</v>
+        <v>17.60794066666666</v>
       </c>
       <c r="H35">
-        <v>268.576439</v>
+        <v>52.82382199999999</v>
       </c>
       <c r="I35">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="J35">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.18664466666667</v>
+        <v>29.981109</v>
       </c>
       <c r="N35">
-        <v>48.55993400000001</v>
+        <v>89.94332700000001</v>
       </c>
       <c r="O35">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="P35">
-        <v>0.135770102432195</v>
+        <v>0.1575031587461216</v>
       </c>
       <c r="Q35">
-        <v>1449.117127977225</v>
+        <v>527.905588392866</v>
       </c>
       <c r="R35">
-        <v>13042.05415179503</v>
+        <v>4751.150295535794</v>
       </c>
       <c r="S35">
-        <v>0.06821590336904836</v>
+        <v>0.03140489263877108</v>
       </c>
       <c r="T35">
-        <v>0.06821590336904836</v>
+        <v>0.03140489263877109</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>89.52547966666667</v>
+        <v>17.60794066666666</v>
       </c>
       <c r="H36">
-        <v>268.576439</v>
+        <v>52.82382199999999</v>
       </c>
       <c r="I36">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="J36">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>59.87601466666666</v>
+        <v>83.54961400000001</v>
       </c>
       <c r="N36">
-        <v>179.628044</v>
+        <v>250.648842</v>
       </c>
       <c r="O36">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062193</v>
       </c>
       <c r="P36">
-        <v>0.502227163932612</v>
+        <v>0.4389206589062194</v>
       </c>
       <c r="Q36">
-        <v>5360.428933561701</v>
+        <v>1471.136646034902</v>
       </c>
       <c r="R36">
-        <v>48243.86040205531</v>
+        <v>13240.22981431412</v>
       </c>
       <c r="S36">
-        <v>0.2523374371117383</v>
+        <v>0.08751733158639212</v>
       </c>
       <c r="T36">
-        <v>0.2523374371117383</v>
+        <v>0.08751733158639213</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>89.52547966666667</v>
+        <v>17.60794066666666</v>
       </c>
       <c r="H37">
-        <v>268.576439</v>
+        <v>52.82382199999999</v>
       </c>
       <c r="I37">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="J37">
-        <v>0.5024368557364541</v>
+        <v>0.1993921448229012</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.584346</v>
+        <v>34.93954466666667</v>
       </c>
       <c r="N37">
-        <v>40.753038</v>
+        <v>104.818634</v>
       </c>
       <c r="O37">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="P37">
-        <v>0.1139425795694684</v>
+        <v>0.1835518709515117</v>
       </c>
       <c r="Q37">
-        <v>1216.145091607965</v>
+        <v>615.2134294110164</v>
       </c>
       <c r="R37">
-        <v>10945.30582447168</v>
+        <v>5536.920864699147</v>
       </c>
       <c r="S37">
-        <v>0.05724895141338444</v>
+        <v>0.0365988012352783</v>
       </c>
       <c r="T37">
-        <v>0.05724895141338444</v>
+        <v>0.0365988012352783</v>
       </c>
     </row>
   </sheetData>
